--- a/External Data/reports/2018_termination_data.xlsx
+++ b/External Data/reports/2018_termination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\20221214_IN_ab_gest\IN_ab_gest\External_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\indiana_abortion\External Data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663D9E82-D25B-4CE0-93A0-8F874CFB047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F5579-A353-49A7-8AE2-F68059BDDAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="821" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1345" yWindow="105" windowWidth="14460" windowHeight="9925" tabRatio="821" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018_age" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="2018_gestation" sheetId="8" r:id="rId8"/>
     <sheet name="2018_gestation_procedure" sheetId="9" r:id="rId9"/>
     <sheet name="2018_county" sheetId="10" r:id="rId10"/>
-    <sheet name="2018_procedure_location_wrksht" sheetId="11" r:id="rId11"/>
+    <sheet name="2018_monthly" sheetId="12" r:id="rId11"/>
+    <sheet name="2018_procedure_location_wrksht" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="197">
   <si>
     <t>Age</t>
   </si>
@@ -520,6 +521,120 @@
   </si>
   <si>
     <t>Mifepristone Misoprostol</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Resident_x000D_Terminations_x000D_(n =7263)</t>
+  </si>
+  <si>
+    <t>Non-Resident_x000D_Terminations_x000D_(n =774)</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>576 (7.17%)</t>
+  </si>
+  <si>
+    <t>59 (.73%)</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>666 (8.29%)</t>
+  </si>
+  <si>
+    <t>626 (7.79%)</t>
+  </si>
+  <si>
+    <t>40 (.50%)</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>746 (9.28%)</t>
+  </si>
+  <si>
+    <t>78 (.97%)</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>581 (7.23%)</t>
+  </si>
+  <si>
+    <t>65 (.81%)</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>72 (.89%)</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>641 (7.98%)</t>
+  </si>
+  <si>
+    <t>74 (.92%)</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>494 (6.15%)</t>
+  </si>
+  <si>
+    <t>58 (.72%)</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>668 (8.31%)</t>
+  </si>
+  <si>
+    <t>76 (.94%)</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>579 (7.20%)</t>
+  </si>
+  <si>
+    <t>57 (.70%)</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>523 (6.51%)</t>
+  </si>
+  <si>
+    <t>63 (.78%)</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>588 (7.32%)</t>
+  </si>
+  <si>
+    <t>66 (.82%)</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>575 (7.15%)</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1123,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1018,7 +1133,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1382,12 +1496,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1409,7 +1523,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +1534,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +1545,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1442,7 +1556,7 @@
         <v>31.27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +1567,7 @@
         <v>28.51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1578,7 @@
         <v>17.18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1475,7 +1589,7 @@
         <v>9.59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1600,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1511,9 +1625,9 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1533,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1553,7 +1667,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1573,7 +1687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1593,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1613,7 +1727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1633,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1653,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1673,7 +1787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1693,7 +1807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1713,7 +1827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -1733,7 +1847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -1753,7 +1867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -1773,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1793,7 +1907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -1813,7 +1927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -1833,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -1853,7 +1967,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -1873,7 +1987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -1893,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -1913,7 +2027,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -1933,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -1953,7 +2067,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -1973,7 +2087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -1993,7 +2107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -2013,7 +2127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -2033,7 +2147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -2053,7 +2167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -2073,7 +2187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -2093,7 +2207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -2113,7 +2227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -2139,6 +2253,164 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB9F2BF-C107-4846-8144-E2498F9EB5BD}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD66995-3B1A-44BC-9E15-1466233139FF}">
   <dimension ref="A2:J21"/>
   <sheetViews>
@@ -2146,12 +2418,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
         <v>55</v>
       </c>
@@ -2159,7 +2431,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -2185,7 +2457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B4">
         <v>402</v>
       </c>
@@ -2211,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B5">
         <v>195</v>
       </c>
@@ -2237,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B6">
         <v>441</v>
       </c>
@@ -2263,7 +2535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B7">
         <v>1524</v>
       </c>
@@ -2289,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B8">
         <v>413</v>
       </c>
@@ -2303,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B9">
         <v>320</v>
       </c>
@@ -2317,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2354,7 +2626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="B14" s="3" t="s">
         <v>55</v>
       </c>
@@ -2362,7 +2634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
@@ -2375,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2388,7 +2660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2401,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2414,12 +2686,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B21">
         <f t="shared" ref="B21:C21" si="2">SUM(B15:B20)</f>
         <v>7993</v>
@@ -2446,12 +2718,12 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2462,7 +2734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2473,7 +2745,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2484,7 +2756,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2495,7 +2767,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2506,7 +2778,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2517,7 +2789,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2528,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2539,7 +2811,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2550,7 +2822,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2566,12 +2838,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2582,36 +2854,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
         <v>7225</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>89.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3">
         <v>687</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4">
         <v>125</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>1.56</v>
       </c>
     </row>
@@ -2628,12 +2900,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2644,102 +2916,102 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2">
         <v>79</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>0.98</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3">
         <v>641</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>7.98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4">
         <v>2893</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5">
         <v>2243</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>27.91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6">
         <v>781</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7">
         <v>1013</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>12.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8">
         <v>194</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>2.41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9">
         <v>43</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>0.54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10">
         <v>150</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>1.87</v>
       </c>
     </row>
@@ -2753,83 +3025,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="24.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="8"/>
+    <col min="3" max="3" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1.2442453651860148E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2">
         <v>4729</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>58.840363319646642</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
         <v>11</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.13686699017046161</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>157</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>158</v>
       </c>
       <c r="B6">
         <v>3296</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>41.01032723653104</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C19" s="4"/>
     </row>
   </sheetData>
@@ -2846,14 +3118,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="37.36328125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -2867,7 +3139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2877,11 +3149,11 @@
       <c r="C2">
         <v>1212</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>15.08</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2891,11 +3163,11 @@
       <c r="C3">
         <v>196</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>2.44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2905,11 +3177,11 @@
       <c r="C4">
         <v>887</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>11.04</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2919,11 +3191,11 @@
       <c r="C5">
         <v>3284</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>40.86</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2933,11 +3205,11 @@
       <c r="C6">
         <v>1269</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>17.79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2947,11 +3219,11 @@
       <c r="C7">
         <v>1145</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>14.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2961,11 +3233,11 @@
       <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2975,11 +3247,11 @@
       <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2989,11 +3261,11 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -3003,11 +3275,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C15" s="4"/>
     </row>
   </sheetData>
@@ -3023,14 +3295,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3044,7 +3316,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3055,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3066,7 +3338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3077,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3088,7 +3360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -3104,13 +3376,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.90625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -3121,51 +3393,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="2">
         <v>4715</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>58.67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="2">
         <v>3288</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>40.909999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B4">
         <v>23</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
@@ -3182,7 +3454,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
@@ -3193,20 +3465,20 @@
     <col min="7" max="7" width="9.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>
